--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
+    <workbookView xWindow="2904" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4909,7 +4909,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -4917,7 +4917,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -4925,7 +4925,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -4933,7 +4933,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -4941,7 +4941,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -4949,7 +4949,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4957,7 +4957,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4965,7 +4965,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>996</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4973,7 +4973,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>312</v>
+        <v>996</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4989,7 +4989,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5005,7 +5005,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5013,7 +5013,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5021,7 +5021,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5029,7 +5029,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5037,7 +5037,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5061,7 +5061,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5069,7 +5069,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5077,7 +5077,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5085,7 +5085,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5093,7 +5093,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5101,7 +5101,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>997</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5109,7 +5109,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5117,7 +5117,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5125,7 +5125,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>330</v>
+        <v>997</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5133,7 +5133,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5141,7 +5141,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5149,7 +5149,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5157,7 +5157,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5165,7 +5165,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5173,7 +5173,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5181,7 +5181,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5189,7 +5189,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5197,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5213,7 +5213,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5221,7 +5221,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5229,7 +5229,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5237,7 +5237,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5245,7 +5245,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5253,7 +5253,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5261,7 +5261,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5269,7 +5269,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5277,7 +5277,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5285,7 +5285,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5293,7 +5293,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5309,7 +5309,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5317,7 +5317,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5325,7 +5325,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5333,7 +5333,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5341,7 +5341,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5349,7 +5349,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5365,7 +5365,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5373,7 +5373,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5381,7 +5381,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5389,7 +5389,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5397,7 +5397,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5413,7 +5413,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5421,7 +5421,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5429,7 +5429,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5437,7 +5437,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5445,7 +5445,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +5453,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5461,7 +5461,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5469,7 +5469,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5485,7 +5485,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5493,7 +5493,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5501,7 +5501,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>998</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5509,7 +5509,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5517,7 +5517,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5525,7 +5525,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>387</v>
+        <v>998</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -5533,7 +5533,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -5541,7 +5541,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5549,7 +5549,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -5557,7 +5557,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -5565,7 +5565,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -5573,7 +5573,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -5581,7 +5581,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5589,7 +5589,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +5597,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5629,7 +5629,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -5637,7 +5637,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5645,7 +5645,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -5653,7 +5653,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -5661,7 +5661,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +5669,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -5677,7 +5677,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -5685,7 +5685,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -5709,7 +5709,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,7 +5717,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -5725,7 +5725,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -5733,7 +5733,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +5741,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -5749,7 +5749,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -5757,7 +5757,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -5773,7 +5773,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -5797,7 +5797,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -5805,7 +5805,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -5821,7 +5821,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -5829,7 +5829,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,7 +5853,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -5861,7 +5861,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -5869,7 +5869,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +5885,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,7 +5893,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>999</v>
+        <v>435</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -5901,7 +5901,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +5917,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>440</v>
+        <v>999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +5925,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5933,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +5941,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +5949,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +5957,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +5965,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +5973,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +5997,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +6005,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -6013,7 +6013,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +6029,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -6037,7 +6037,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6045,7 +6045,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1048</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6061,7 +6061,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6069,7 +6069,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>461</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6085,7 +6085,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6093,7 +6093,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +6101,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,7 +6117,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6133,7 +6133,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6141,7 +6141,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,7 +6149,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6165,7 +6165,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6173,7 +6173,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6189,7 +6189,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1001</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>478</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6205,7 +6205,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6213,7 +6213,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>480</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6221,7 +6221,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6237,7 +6237,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +6245,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6253,7 +6253,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>1002</v>
+        <v>486</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6325,7 +6325,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>494</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6349,7 +6349,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1004</v>
+        <v>494</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6373,7 +6373,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6381,7 +6381,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>499</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +6389,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1005</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6397,7 +6397,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1006</v>
+        <v>498</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>501</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6421,7 +6421,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>502</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6429,7 +6429,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6453,7 +6453,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6477,7 +6477,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6501,7 +6501,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1007</v>
+        <v>511</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6525,7 +6525,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6533,7 +6533,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>518</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6541,7 +6541,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1008</v>
+        <v>516</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6549,7 +6549,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6557,7 +6557,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6565,7 +6565,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>521</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -6589,7 +6589,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +6605,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -6621,7 +6621,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -6629,7 +6629,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +6653,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -6661,7 +6661,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -6693,7 +6693,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -6709,7 +6709,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -6725,7 +6725,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1009</v>
+        <v>543</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -6749,7 +6749,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -6765,7 +6765,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>550</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -6773,7 +6773,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1010</v>
+        <v>549</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -6789,7 +6789,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>555</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -6813,7 +6813,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -6829,7 +6829,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1011</v>
+        <v>555</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -6837,7 +6837,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -6853,7 +6853,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>563</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -6869,7 +6869,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -6877,7 +6877,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -6885,7 +6885,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +6893,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -6909,7 +6909,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1047</v>
+        <v>567</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -6917,7 +6917,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -6925,7 +6925,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>572</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -6949,7 +6949,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -6957,7 +6957,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,7 +6965,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -6973,7 +6973,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -6981,7 +6981,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -6997,7 +6997,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7005,7 +7005,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7013,7 +7013,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7021,7 +7021,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7029,7 +7029,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7053,7 +7053,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7077,7 +7077,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7085,7 +7085,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7093,7 +7093,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1012</v>
+        <v>592</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1037</v>
+        <v>593</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -7117,7 +7117,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>599</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>600</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -7141,7 +7141,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -7149,7 +7149,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -7157,7 +7157,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7165,7 +7165,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -7173,7 +7173,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7189,7 +7189,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7205,7 +7205,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7213,7 +7213,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7229,7 +7229,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7237,7 +7237,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7245,7 +7245,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7253,7 +7253,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7269,7 +7269,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1044</v>
+        <v>622</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7293,7 +7293,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -7309,7 +7309,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>629</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -7317,7 +7317,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +7325,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -7341,7 +7341,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7349,7 +7349,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -7357,7 +7357,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7365,7 +7365,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1013</v>
+        <v>636</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7381,7 +7381,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7389,7 +7389,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>644</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +7397,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7413,7 +7413,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,7 +7421,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7429,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7437,7 +7437,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7445,7 +7445,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -7453,7 +7453,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1014</v>
+        <v>652</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +7485,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1015</v>
+        <v>654</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +7501,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>658</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>659</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +7533,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1016</v>
+        <v>661</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -7557,7 +7557,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -7565,7 +7565,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -7573,7 +7573,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>669</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -7581,7 +7581,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -7589,7 +7589,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -7597,7 +7597,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -7605,7 +7605,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -7621,7 +7621,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -7629,7 +7629,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -7637,7 +7637,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -7645,7 +7645,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -7653,7 +7653,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -7661,7 +7661,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -7669,7 +7669,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1017</v>
+        <v>679</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -7677,7 +7677,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +7685,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1018</v>
+        <v>682</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +7693,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>684</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -7709,7 +7709,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -7717,7 +7717,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1020</v>
+        <v>687</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -7733,7 +7733,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>690</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1038</v>
+        <v>688</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -7749,7 +7749,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>691</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +7757,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -7765,7 +7765,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>693</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -7773,7 +7773,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1021</v>
+        <v>691</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -7789,7 +7789,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -7797,7 +7797,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>698</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -7805,7 +7805,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -7837,7 +7837,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -7845,7 +7845,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1022</v>
+        <v>701</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -7853,7 +7853,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -7869,7 +7869,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -7877,7 +7877,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -7893,7 +7893,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>711</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -7909,7 +7909,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -7917,7 +7917,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -7925,7 +7925,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>976</v>
+        <v>714</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -7933,7 +7933,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -7941,7 +7941,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>720</v>
+        <v>976</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -7957,7 +7957,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -7965,7 +7965,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -7973,7 +7973,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,7 +7981,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1024</v>
+        <v>722</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -7989,7 +7989,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -7997,7 +7997,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -8005,7 +8005,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>727</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -8021,7 +8021,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -8029,7 +8029,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -8045,7 +8045,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -8053,7 +8053,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -8061,7 +8061,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -8069,7 +8069,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -8085,7 +8085,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -8093,7 +8093,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -8101,7 +8101,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -8109,7 +8109,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -8117,7 +8117,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -8125,7 +8125,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -8133,7 +8133,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -8149,7 +8149,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -8157,7 +8157,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -8165,7 +8165,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -8173,7 +8173,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -8189,7 +8189,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -8197,7 +8197,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -8205,7 +8205,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -8213,7 +8213,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -8221,7 +8221,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -8229,7 +8229,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -8237,7 +8237,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -8245,7 +8245,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -8253,7 +8253,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -8261,7 +8261,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -8269,7 +8269,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -8285,7 +8285,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -8293,7 +8293,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -8301,7 +8301,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -8309,7 +8309,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -8317,7 +8317,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -8333,7 +8333,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -8349,7 +8349,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -8357,7 +8357,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -8365,7 +8365,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -8373,7 +8373,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -8381,7 +8381,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -8389,7 +8389,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -8397,7 +8397,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -8405,7 +8405,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -8413,7 +8413,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -8437,7 +8437,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1025</v>
+        <v>784</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -8453,7 +8453,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -8461,7 +8461,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>790</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -8469,7 +8469,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +8477,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -8485,7 +8485,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -8493,7 +8493,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -8501,7 +8501,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -8509,7 +8509,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -8517,7 +8517,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -8525,7 +8525,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -8533,7 +8533,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -8541,7 +8541,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -8549,7 +8549,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -8557,7 +8557,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -8565,7 +8565,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -8573,7 +8573,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -8581,7 +8581,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1045</v>
+        <v>804</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -8589,7 +8589,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -8597,7 +8597,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -8605,7 +8605,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>810</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -8613,7 +8613,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -8629,7 +8629,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -8637,7 +8637,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -8645,7 +8645,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -8653,7 +8653,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -8661,7 +8661,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -8669,7 +8669,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -8677,7 +8677,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -8685,7 +8685,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -8701,7 +8701,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>1046</v>
+        <v>820</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -8709,7 +8709,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -8717,7 +8717,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -8725,7 +8725,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>829</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -8733,7 +8733,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
@@ -8741,7 +8741,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
@@ -8749,7 +8749,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -8757,7 +8757,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
@@ -8765,7 +8765,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -8773,7 +8773,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1026</v>
+        <v>832</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -8789,7 +8789,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -8797,7 +8797,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>839</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -8805,7 +8805,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1027</v>
+        <v>835</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -8813,7 +8813,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -8821,7 +8821,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1028</v>
+        <v>839</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>842</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +8837,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -8845,7 +8845,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>844</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -8853,7 +8853,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1029</v>
+        <v>842</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
@@ -8869,7 +8869,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1039</v>
+        <v>844</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
@@ -8877,7 +8877,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>848</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
@@ -8893,7 +8893,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>852</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
@@ -8901,7 +8901,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -8909,7 +8909,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
@@ -8917,7 +8917,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
@@ -8925,7 +8925,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
@@ -8933,7 +8933,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -8941,7 +8941,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
@@ -8949,7 +8949,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
@@ -8957,7 +8957,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
@@ -8965,7 +8965,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
@@ -8973,7 +8973,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1040</v>
+        <v>864</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
@@ -8989,7 +8989,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
@@ -8997,7 +8997,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1041</v>
+        <v>870</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
@@ -9005,7 +9005,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
@@ -9013,7 +9013,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
@@ -9021,7 +9021,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
@@ -9029,7 +9029,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>877</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -9037,7 +9037,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -9045,7 +9045,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>879</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
@@ -9053,7 +9053,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
@@ -9077,7 +9077,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -9093,7 +9093,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -9101,7 +9101,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -9117,7 +9117,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -9125,7 +9125,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -9133,7 +9133,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -9141,7 +9141,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -9149,7 +9149,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -9157,7 +9157,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -9165,7 +9165,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -9173,7 +9173,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -9181,7 +9181,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1042</v>
+        <v>894</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -9197,7 +9197,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -9205,7 +9205,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -9213,7 +9213,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>899</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -9221,7 +9221,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -9237,7 +9237,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
@@ -9245,7 +9245,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -9253,7 +9253,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -9261,7 +9261,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -9269,7 +9269,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -9277,7 +9277,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -9285,7 +9285,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -9293,7 +9293,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -9317,7 +9317,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1032</v>
+        <v>909</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -9325,7 +9325,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1033</v>
+        <v>910</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -9333,7 +9333,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1034</v>
+        <v>911</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -9341,7 +9341,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>924</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -9349,7 +9349,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>946</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -9357,22 +9357,31 @@
         <v>712</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>964</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
         <v>713</v>
       </c>
+      <c r="B715" s="4" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>714</v>
       </c>
+      <c r="B716" s="4" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
         <v>715</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">

--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
+    <workbookView xWindow="4356" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5581,7 +5581,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5589,7 +5589,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +5597,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5629,7 +5629,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -5637,7 +5637,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5645,7 +5645,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -5653,7 +5653,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -5661,7 +5661,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +5669,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -5677,7 +5677,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -5685,7 +5685,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -5709,7 +5709,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,7 +5717,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -5725,7 +5725,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -5733,7 +5733,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +5741,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -5749,7 +5749,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -5757,7 +5757,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -5773,7 +5773,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -5797,7 +5797,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -5805,7 +5805,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -5821,7 +5821,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -5829,7 +5829,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,7 +5853,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -5861,7 +5861,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -5869,7 +5869,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +5885,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,7 +5893,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -5901,7 +5901,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +5917,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>999</v>
+        <v>437</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +5925,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>438</v>
+        <v>999</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5933,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +5941,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +5949,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +5957,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +5965,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +5973,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +5997,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +6005,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -6013,7 +6013,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +6029,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -6037,7 +6037,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6045,7 +6045,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6061,7 +6061,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6069,7 +6069,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1048</v>
+        <v>457</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6085,7 +6085,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>459</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6093,7 +6093,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +6101,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,7 +6117,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6133,7 +6133,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6141,7 +6141,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,7 +6149,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6165,7 +6165,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6173,7 +6173,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6189,7 +6189,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1000</v>
+        <v>473</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6205,7 +6205,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6213,7 +6213,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6221,7 +6221,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>479</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6237,7 +6237,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +6245,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6253,7 +6253,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1002</v>
+        <v>487</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6325,7 +6325,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>491</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>1003</v>
+        <v>489</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6349,7 +6349,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>493</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6373,7 +6373,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6381,7 +6381,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1004</v>
+        <v>495</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +6389,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6397,7 +6397,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>498</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1005</v>
+        <v>498</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6421,7 +6421,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1006</v>
+        <v>499</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6429,7 +6429,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>500</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>501</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6453,7 +6453,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6477,7 +6477,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6501,7 +6501,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6525,7 +6525,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6533,7 +6533,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1007</v>
+        <v>512</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6541,7 +6541,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6549,7 +6549,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>517</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6557,7 +6557,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6565,7 +6565,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1008</v>
+        <v>517</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>520</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -6589,7 +6589,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +6605,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -6621,7 +6621,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -6629,7 +6629,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +6653,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -6661,7 +6661,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -6693,7 +6693,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -6709,7 +6709,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -6725,7 +6725,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -6749,7 +6749,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -6765,7 +6765,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1009</v>
+        <v>544</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -6773,7 +6773,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>549</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -6789,7 +6789,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1010</v>
+        <v>550</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -6813,7 +6813,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>554</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -6829,7 +6829,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -6837,7 +6837,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -6853,7 +6853,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1011</v>
+        <v>556</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -6869,7 +6869,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>561</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -6877,7 +6877,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -6885,7 +6885,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +6893,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -6909,7 +6909,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -6917,7 +6917,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -6925,7 +6925,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1047</v>
+        <v>568</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -6949,7 +6949,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>571</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -6957,7 +6957,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,7 +6965,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -6973,7 +6973,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -6981,7 +6981,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -6997,7 +6997,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7005,7 +7005,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7013,7 +7013,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7021,7 +7021,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7029,7 +7029,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7053,7 +7053,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7077,7 +7077,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7085,7 +7085,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7093,7 +7093,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -7117,7 +7117,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1012</v>
+        <v>593</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1037</v>
+        <v>596</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>597</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -7141,7 +7141,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>599</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -7149,7 +7149,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -7157,7 +7157,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7165,7 +7165,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -7173,7 +7173,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7189,7 +7189,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7205,7 +7205,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7213,7 +7213,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7229,7 +7229,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7237,7 +7237,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7245,7 +7245,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7253,7 +7253,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7269,7 +7269,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7293,7 +7293,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -7309,7 +7309,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1044</v>
+        <v>623</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -7317,7 +7317,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +7325,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>626</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -7341,7 +7341,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7349,7 +7349,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -7357,7 +7357,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7365,7 +7365,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7381,7 +7381,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7389,7 +7389,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1013</v>
+        <v>638</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +7397,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>642</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7413,7 +7413,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,7 +7421,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7429,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7437,7 +7437,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7445,7 +7445,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -7453,7 +7453,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +7485,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +7501,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1014</v>
+        <v>654</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1015</v>
+        <v>656</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>657</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>658</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +7533,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -7557,7 +7557,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -7565,7 +7565,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -7573,7 +7573,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1016</v>
+        <v>663</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -7581,7 +7581,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -7589,7 +7589,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>668</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -7597,7 +7597,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -7605,7 +7605,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -7621,7 +7621,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -7629,7 +7629,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -7637,7 +7637,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -7645,7 +7645,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -7653,7 +7653,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -7661,7 +7661,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -7669,7 +7669,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -7677,7 +7677,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +7685,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +7693,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1017</v>
+        <v>681</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -7709,7 +7709,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -7717,7 +7717,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>687</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -7733,7 +7733,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1019</v>
+        <v>684</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -7749,7 +7749,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +7757,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -7765,7 +7765,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -7773,7 +7773,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>692</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -7789,7 +7789,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -7797,7 +7797,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1021</v>
+        <v>692</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -7805,7 +7805,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>697</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -7837,7 +7837,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -7845,7 +7845,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -7853,7 +7853,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -7869,7 +7869,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1022</v>
+        <v>702</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -7877,7 +7877,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>708</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -7893,7 +7893,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1023</v>
+        <v>706</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -7909,7 +7909,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>710</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -7917,7 +7917,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -7925,7 +7925,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -7933,7 +7933,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -7941,7 +7941,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>976</v>
+        <v>715</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -7957,7 +7957,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -7965,7 +7965,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>719</v>
+        <v>976</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -7973,7 +7973,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,7 +7981,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -7989,7 +7989,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -7997,7 +7997,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -8005,7 +8005,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1024</v>
+        <v>723</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -8021,7 +8021,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>726</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -8029,7 +8029,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -8045,7 +8045,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -8053,7 +8053,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -8061,7 +8061,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -8069,7 +8069,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -8085,7 +8085,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -8093,7 +8093,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -8101,7 +8101,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -8109,7 +8109,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -8117,7 +8117,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -8125,7 +8125,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -8133,7 +8133,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -8149,7 +8149,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -8157,7 +8157,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -8165,7 +8165,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -8173,7 +8173,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -8189,7 +8189,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -8197,7 +8197,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -8205,7 +8205,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -8213,7 +8213,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -8221,7 +8221,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -8229,7 +8229,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -8237,7 +8237,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -8245,7 +8245,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -8253,7 +8253,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -8261,7 +8261,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -8269,7 +8269,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -8285,7 +8285,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -8293,7 +8293,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -8301,7 +8301,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -8309,7 +8309,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -8317,7 +8317,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -8333,7 +8333,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -8349,7 +8349,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -8357,7 +8357,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -8365,7 +8365,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -8373,7 +8373,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -8381,7 +8381,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -8389,7 +8389,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -8397,7 +8397,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -8405,7 +8405,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -8413,7 +8413,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -8437,7 +8437,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -8453,7 +8453,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -8461,7 +8461,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1025</v>
+        <v>785</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -8469,7 +8469,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +8477,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>789</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -8485,7 +8485,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -8493,7 +8493,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -8501,7 +8501,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -8509,7 +8509,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -8517,7 +8517,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -8525,7 +8525,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -8533,7 +8533,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -8541,7 +8541,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -8549,7 +8549,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -8557,7 +8557,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -8565,7 +8565,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -8573,7 +8573,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -8581,7 +8581,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -8589,7 +8589,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -8597,7 +8597,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -8605,7 +8605,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1045</v>
+        <v>805</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -8613,7 +8613,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -8629,7 +8629,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -8637,7 +8637,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -8645,7 +8645,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -8653,7 +8653,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -8661,7 +8661,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -8669,7 +8669,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -8677,7 +8677,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -8685,7 +8685,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -8701,7 +8701,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -8709,7 +8709,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -8717,7 +8717,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -8725,7 +8725,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1046</v>
+        <v>821</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -8733,7 +8733,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
@@ -8741,7 +8741,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>824</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
@@ -8749,7 +8749,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -8757,7 +8757,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
@@ -8765,7 +8765,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -8773,7 +8773,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -8789,7 +8789,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -8797,7 +8797,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>1026</v>
+        <v>833</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -8805,7 +8805,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -8813,7 +8813,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>836</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -8821,7 +8821,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1027</v>
+        <v>836</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +8837,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -8845,7 +8845,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -8853,7 +8853,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>843</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
@@ -8869,7 +8869,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
@@ -8877,7 +8877,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1029</v>
+        <v>843</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
@@ -8893,7 +8893,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
@@ -8901,7 +8901,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -8909,7 +8909,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>849</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
@@ -8917,7 +8917,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
@@ -8925,7 +8925,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
@@ -8933,7 +8933,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -8941,7 +8941,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
@@ -8949,7 +8949,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
@@ -8957,7 +8957,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
@@ -8965,7 +8965,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
@@ -8973,7 +8973,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
@@ -8989,7 +8989,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
@@ -8997,7 +8997,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
@@ -9005,7 +9005,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1040</v>
+        <v>865</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
@@ -9013,7 +9013,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
@@ -9021,7 +9021,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
@@ -9029,7 +9029,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1030</v>
+        <v>875</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -9037,7 +9037,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>876</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -9045,7 +9045,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
@@ -9053,7 +9053,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>878</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
@@ -9077,7 +9077,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -9093,7 +9093,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -9101,7 +9101,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -9117,7 +9117,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -9125,7 +9125,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -9133,7 +9133,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -9141,7 +9141,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -9149,7 +9149,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -9157,7 +9157,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -9165,7 +9165,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -9173,7 +9173,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -9181,7 +9181,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -9197,7 +9197,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -9205,7 +9205,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -9213,7 +9213,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1042</v>
+        <v>895</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -9221,7 +9221,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>898</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -9237,7 +9237,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
@@ -9245,7 +9245,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -9253,7 +9253,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -9261,7 +9261,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -9269,7 +9269,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -9277,7 +9277,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -9285,7 +9285,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -9293,7 +9293,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -9317,7 +9317,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -9325,7 +9325,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -9333,7 +9333,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -9341,7 +9341,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1032</v>
+        <v>910</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -9349,7 +9349,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1033</v>
+        <v>911</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -9357,7 +9357,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
@@ -9365,7 +9365,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>924</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
@@ -9373,7 +9373,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>946</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
@@ -9381,17 +9381,23 @@
         <v>715</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
         <v>716</v>
       </c>
+      <c r="B718" s="4" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>717</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">

--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
+    <workbookView xWindow="5808" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5909,7 +5909,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +5917,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>437</v>
+        <v>999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +5925,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>999</v>
+        <v>438</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5933,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +5941,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +5949,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +5957,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +5965,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +5973,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +5997,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +6005,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -6013,7 +6013,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +6029,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -6037,7 +6037,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6045,7 +6045,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6061,7 +6061,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6069,7 +6069,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>457</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6085,7 +6085,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1048</v>
+        <v>459</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6093,7 +6093,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +6101,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,7 +6117,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6133,7 +6133,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6141,7 +6141,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,7 +6149,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6165,7 +6165,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6173,7 +6173,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6189,7 +6189,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6205,7 +6205,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>476</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6213,7 +6213,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1000</v>
+        <v>477</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6221,7 +6221,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>477</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1001</v>
+        <v>478</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6237,7 +6237,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +6245,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6253,7 +6253,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>488</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6325,7 +6325,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1002</v>
+        <v>489</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>491</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6349,7 +6349,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>1003</v>
+        <v>492</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6373,7 +6373,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6381,7 +6381,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +6389,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>496</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6397,7 +6397,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1004</v>
+        <v>497</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6421,7 +6421,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>499</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6429,7 +6429,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1006</v>
+        <v>500</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6453,7 +6453,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6477,7 +6477,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6501,7 +6501,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6525,7 +6525,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6533,7 +6533,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6541,7 +6541,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>513</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6549,7 +6549,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1007</v>
+        <v>516</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6557,7 +6557,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6565,7 +6565,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>518</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1008</v>
+        <v>519</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -6589,7 +6589,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +6605,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -6621,7 +6621,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -6629,7 +6629,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +6653,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -6661,7 +6661,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -6693,7 +6693,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -6709,7 +6709,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -6725,7 +6725,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -6749,7 +6749,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -6765,7 +6765,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -6773,7 +6773,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>545</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1009</v>
+        <v>548</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -6789,7 +6789,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -6813,7 +6813,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>552</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1010</v>
+        <v>553</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -6829,7 +6829,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -6837,7 +6837,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -6853,7 +6853,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>557</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -6869,7 +6869,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1011</v>
+        <v>560</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -6877,7 +6877,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -6885,7 +6885,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +6893,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -6909,7 +6909,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -6917,7 +6917,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -6925,7 +6925,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>569</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -6949,7 +6949,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1047</v>
+        <v>570</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -6957,7 +6957,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,7 +6965,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -6973,7 +6973,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -6981,7 +6981,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -6997,7 +6997,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7005,7 +7005,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7013,7 +7013,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7021,7 +7021,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7029,7 +7029,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7053,7 +7053,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7077,7 +7077,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7085,7 +7085,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7093,7 +7093,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -7117,7 +7117,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>596</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -7141,7 +7141,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1037</v>
+        <v>597</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -7149,7 +7149,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -7157,7 +7157,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7165,7 +7165,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -7173,7 +7173,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7189,7 +7189,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7205,7 +7205,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7213,7 +7213,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7229,7 +7229,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7237,7 +7237,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7245,7 +7245,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7253,7 +7253,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7269,7 +7269,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7293,7 +7293,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -7309,7 +7309,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -7317,7 +7317,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>624</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +7325,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>1044</v>
+        <v>625</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -7341,7 +7341,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7349,7 +7349,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -7357,7 +7357,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7365,7 +7365,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7381,7 +7381,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7389,7 +7389,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +7397,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>640</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1013</v>
+        <v>641</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7413,7 +7413,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,7 +7421,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7429,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7437,7 +7437,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7445,7 +7445,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -7453,7 +7453,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +7485,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +7501,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>656</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1015</v>
+        <v>657</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +7533,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -7557,7 +7557,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -7565,7 +7565,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -7573,7 +7573,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -7581,7 +7581,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>664</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -7589,7 +7589,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1016</v>
+        <v>667</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -7597,7 +7597,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -7605,7 +7605,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -7621,7 +7621,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -7629,7 +7629,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -7637,7 +7637,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -7645,7 +7645,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -7653,7 +7653,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -7661,7 +7661,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -7669,7 +7669,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -7677,7 +7677,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +7685,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +7693,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>682</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -7709,7 +7709,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1017</v>
+        <v>683</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -7717,7 +7717,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>683</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1018</v>
+        <v>684</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -7733,7 +7733,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>687</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -7749,7 +7749,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1019</v>
+        <v>688</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +7757,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>688</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -7765,7 +7765,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1020</v>
+        <v>690</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -7773,7 +7773,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>690</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1038</v>
+        <v>691</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -7789,7 +7789,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -7797,7 +7797,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -7805,7 +7805,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>693</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1021</v>
+        <v>696</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -7837,7 +7837,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -7845,7 +7845,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -7853,7 +7853,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -7869,7 +7869,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -7877,7 +7877,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>705</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1022</v>
+        <v>706</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -7893,7 +7893,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>708</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -7909,7 +7909,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1023</v>
+        <v>709</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -7917,7 +7917,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -7925,7 +7925,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -7933,7 +7933,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -7941,7 +7941,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -7957,7 +7957,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>717</v>
+        <v>976</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -7965,7 +7965,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>976</v>
+        <v>718</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -7973,7 +7973,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,7 +7981,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -7989,7 +7989,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -7997,7 +7997,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -8005,7 +8005,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>724</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -8021,7 +8021,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1024</v>
+        <v>725</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -8029,7 +8029,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -8045,7 +8045,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -8053,7 +8053,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -8061,7 +8061,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -8069,7 +8069,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -8077,7 +8077,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -8085,7 +8085,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -8093,7 +8093,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -8101,7 +8101,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -8109,7 +8109,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -8117,7 +8117,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -8125,7 +8125,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -8133,7 +8133,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -8149,7 +8149,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -8157,7 +8157,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -8165,7 +8165,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -8173,7 +8173,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -8189,7 +8189,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -8197,7 +8197,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -8205,7 +8205,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -8213,7 +8213,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -8221,7 +8221,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -8229,7 +8229,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -8237,7 +8237,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -8245,7 +8245,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -8253,7 +8253,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -8261,7 +8261,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -8269,7 +8269,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -8285,7 +8285,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -8293,7 +8293,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -8301,7 +8301,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -8309,7 +8309,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -8317,7 +8317,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -8333,7 +8333,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -8349,7 +8349,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -8357,7 +8357,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -8365,7 +8365,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -8373,7 +8373,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -8381,7 +8381,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -8389,7 +8389,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -8397,7 +8397,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -8405,7 +8405,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -8413,7 +8413,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -8437,7 +8437,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -8453,7 +8453,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -8461,7 +8461,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -8469,7 +8469,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>786</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +8477,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>1025</v>
+        <v>788</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -8485,7 +8485,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -8493,7 +8493,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -8501,7 +8501,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -8509,7 +8509,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -8517,7 +8517,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -8525,7 +8525,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -8533,7 +8533,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -8541,7 +8541,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -8549,7 +8549,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -8557,7 +8557,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -8565,7 +8565,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -8573,7 +8573,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -8581,7 +8581,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -8589,7 +8589,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -8597,7 +8597,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -8605,7 +8605,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -8613,7 +8613,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>806</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1045</v>
+        <v>807</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -8629,7 +8629,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -8637,7 +8637,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -8645,7 +8645,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -8653,7 +8653,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -8661,7 +8661,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -8669,7 +8669,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -8677,7 +8677,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -8685,7 +8685,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -8701,7 +8701,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -8709,7 +8709,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -8717,7 +8717,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -8725,7 +8725,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -8733,7 +8733,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>822</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
@@ -8741,7 +8741,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1046</v>
+        <v>823</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
@@ -8749,7 +8749,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -8757,7 +8757,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
@@ -8765,7 +8765,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -8773,7 +8773,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -8789,7 +8789,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -8797,7 +8797,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -8805,7 +8805,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>834</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -8813,7 +8813,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1026</v>
+        <v>835</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -8821,7 +8821,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +8837,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>839</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -8845,7 +8845,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1027</v>
+        <v>840</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -8853,7 +8853,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>840</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1028</v>
+        <v>842</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
@@ -8869,7 +8869,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
@@ -8877,7 +8877,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>844</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
@@ -8893,7 +8893,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1029</v>
+        <v>845</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
@@ -8901,7 +8901,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>845</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -8909,7 +8909,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1039</v>
+        <v>848</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
@@ -8917,7 +8917,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
@@ -8925,7 +8925,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
@@ -8933,7 +8933,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -8941,7 +8941,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
@@ -8949,7 +8949,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
@@ -8957,7 +8957,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
@@ -8965,7 +8965,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
@@ -8973,7 +8973,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
@@ -8989,7 +8989,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
@@ -8997,7 +8997,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
@@ -9005,7 +9005,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
@@ -9013,7 +9013,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>870</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
@@ -9021,7 +9021,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1040</v>
+        <v>875</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
@@ -9029,7 +9029,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>875</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -9037,7 +9037,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -9045,7 +9045,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1030</v>
+        <v>876</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
@@ -9053,7 +9053,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>876</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1031</v>
+        <v>877</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
@@ -9077,7 +9077,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -9093,7 +9093,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -9101,7 +9101,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -9117,7 +9117,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -9125,7 +9125,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -9133,7 +9133,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -9141,7 +9141,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -9149,7 +9149,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -9157,7 +9157,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -9165,7 +9165,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -9173,7 +9173,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -9181,7 +9181,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -9197,7 +9197,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -9205,7 +9205,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -9213,7 +9213,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -9221,7 +9221,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>896</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1042</v>
+        <v>897</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -9237,7 +9237,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
@@ -9245,7 +9245,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -9253,7 +9253,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -9261,7 +9261,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -9269,7 +9269,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -9277,7 +9277,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -9285,7 +9285,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -9293,7 +9293,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -9317,7 +9317,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -9325,7 +9325,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -9333,7 +9333,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -9341,7 +9341,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -9349,7 +9349,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>911</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -9357,7 +9357,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
@@ -9365,7 +9365,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
@@ -9373,7 +9373,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1034</v>
+        <v>924</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
@@ -9381,7 +9381,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
@@ -9389,15 +9389,12 @@
         <v>716</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="B719" s="4" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">

--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional\02a Livingstone\02a Livingstone - LEAP\05 Github\TEI-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blazelivingston/Desktop/Livingstone-files/TEI-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="0" windowWidth="24744" windowHeight="15564" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3267,7 +3270,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3277,6 +3280,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3635,25 +3644,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A705" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B721" sqref="B721"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.796875" style="3"/>
-    <col min="3" max="16384" width="10.796875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3672,7 +3682,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,7 +3698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3696,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3704,7 +3714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3728,7 +3738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3736,7 +3746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3744,7 +3754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3768,7 +3778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3792,7 +3802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3800,7 +3810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -3824,7 +3834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3840,7 +3850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3856,7 +3866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -3872,7 +3882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -3904,7 +3914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -3912,7 +3922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +3930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +3938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -3936,7 +3946,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -3952,7 +3962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3968,7 +3978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -3992,7 +4002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -4000,7 +4010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -4008,7 +4018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -4024,7 +4034,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -4032,7 +4042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -4064,7 +4074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -4072,7 +4082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -4080,7 +4090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -4088,7 +4098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -4096,7 +4106,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -4120,7 +4130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -4128,7 +4138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -4136,7 +4146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -4152,7 +4162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -4168,7 +4178,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -4176,7 +4186,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -4184,7 +4194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -4192,7 +4202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -4208,7 +4218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -4216,7 +4226,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -4232,7 +4242,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -4240,7 +4250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -4248,7 +4258,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -4256,7 +4266,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -4272,7 +4282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -4280,7 +4290,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -4288,7 +4298,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -4296,7 +4306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -4304,7 +4314,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -4328,7 +4338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -4336,7 +4346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -4344,7 +4354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -4352,7 +4362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -4360,7 +4370,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -4368,7 +4378,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -4376,7 +4386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -4392,7 +4402,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -4408,7 +4418,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -4424,7 +4434,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -4432,7 +4442,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -4448,7 +4458,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
@@ -4456,7 +4466,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
@@ -4464,7 +4474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
@@ -4472,7 +4482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
@@ -4488,7 +4498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -4504,7 +4514,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
@@ -4512,7 +4522,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -4520,7 +4530,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -4528,7 +4538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -4536,7 +4546,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
@@ -4544,7 +4554,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -4560,7 +4570,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -4568,7 +4578,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
@@ -4584,7 +4594,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
@@ -4592,7 +4602,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
@@ -4608,7 +4618,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
@@ -4616,7 +4626,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
@@ -4624,7 +4634,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
@@ -4632,7 +4642,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
@@ -4640,7 +4650,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
@@ -4656,7 +4666,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
@@ -4672,7 +4682,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
@@ -4688,7 +4698,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
@@ -4696,7 +4706,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
@@ -4704,7 +4714,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
@@ -4712,7 +4722,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
@@ -4720,7 +4730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -4736,7 +4746,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
@@ -4744,7 +4754,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
@@ -4768,7 +4778,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
@@ -4792,7 +4802,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
@@ -4800,7 +4810,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
@@ -4808,7 +4818,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
@@ -4816,7 +4826,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>146</v>
       </c>
@@ -4832,7 +4842,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>147</v>
       </c>
@@ -4840,7 +4850,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>148</v>
       </c>
@@ -4848,7 +4858,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>149</v>
       </c>
@@ -4856,7 +4866,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>150</v>
       </c>
@@ -4864,7 +4874,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>151</v>
       </c>
@@ -4872,7 +4882,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>152</v>
       </c>
@@ -4880,7 +4890,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>153</v>
       </c>
@@ -4888,7 +4898,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
@@ -4896,7 +4906,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
@@ -4904,7 +4914,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
@@ -4912,7 +4922,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
@@ -4944,7 +4954,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
@@ -4952,7 +4962,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
@@ -4960,7 +4970,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
@@ -4984,7 +4994,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
@@ -4992,7 +5002,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
@@ -5016,7 +5026,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
@@ -5024,7 +5034,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
@@ -5048,7 +5058,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
@@ -5064,7 +5074,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
@@ -5072,7 +5082,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
@@ -5088,7 +5098,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
@@ -5096,7 +5106,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
@@ -5104,7 +5114,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
@@ -5112,7 +5122,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>182</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>183</v>
       </c>
@@ -5128,7 +5138,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -5136,7 +5146,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>186</v>
       </c>
@@ -5152,7 +5162,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>187</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
@@ -5168,7 +5178,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>189</v>
       </c>
@@ -5176,7 +5186,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>190</v>
       </c>
@@ -5184,7 +5194,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -5192,7 +5202,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>192</v>
       </c>
@@ -5200,7 +5210,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>193</v>
       </c>
@@ -5208,7 +5218,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>194</v>
       </c>
@@ -5216,7 +5226,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>195</v>
       </c>
@@ -5224,7 +5234,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>196</v>
       </c>
@@ -5232,7 +5242,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>197</v>
       </c>
@@ -5240,7 +5250,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
@@ -5248,7 +5258,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>200</v>
       </c>
@@ -5264,7 +5274,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>201</v>
       </c>
@@ -5272,7 +5282,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>202</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>203</v>
       </c>
@@ -5288,7 +5298,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>204</v>
       </c>
@@ -5296,7 +5306,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
@@ -5304,7 +5314,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>206</v>
       </c>
@@ -5312,7 +5322,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>207</v>
       </c>
@@ -5320,7 +5330,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>208</v>
       </c>
@@ -5328,7 +5338,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>209</v>
       </c>
@@ -5336,7 +5346,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>210</v>
       </c>
@@ -5344,7 +5354,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>211</v>
       </c>
@@ -5352,7 +5362,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>212</v>
       </c>
@@ -5360,7 +5370,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>213</v>
       </c>
@@ -5368,7 +5378,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>214</v>
       </c>
@@ -5376,7 +5386,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>215</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>216</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>217</v>
       </c>
@@ -5400,7 +5410,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>218</v>
       </c>
@@ -5408,7 +5418,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>219</v>
       </c>
@@ -5416,7 +5426,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>220</v>
       </c>
@@ -5424,7 +5434,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>221</v>
       </c>
@@ -5432,7 +5442,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>222</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>223</v>
       </c>
@@ -5448,7 +5458,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>224</v>
       </c>
@@ -5456,7 +5466,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>225</v>
       </c>
@@ -5464,7 +5474,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>226</v>
       </c>
@@ -5472,7 +5482,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>227</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>228</v>
       </c>
@@ -5488,7 +5498,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>229</v>
       </c>
@@ -5496,7 +5506,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>230</v>
       </c>
@@ -5504,7 +5514,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>231</v>
       </c>
@@ -5512,7 +5522,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>232</v>
       </c>
@@ -5520,7 +5530,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>233</v>
       </c>
@@ -5528,7 +5538,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>234</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>235</v>
       </c>
@@ -5544,7 +5554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>236</v>
       </c>
@@ -5552,7 +5562,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>237</v>
       </c>
@@ -5560,7 +5570,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>238</v>
       </c>
@@ -5568,7 +5578,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>239</v>
       </c>
@@ -5576,7 +5586,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>240</v>
       </c>
@@ -5584,7 +5594,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>241</v>
       </c>
@@ -5592,7 +5602,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>242</v>
       </c>
@@ -5600,7 +5610,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>243</v>
       </c>
@@ -5608,7 +5618,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>244</v>
       </c>
@@ -5616,7 +5626,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>245</v>
       </c>
@@ -5624,7 +5634,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>246</v>
       </c>
@@ -5632,7 +5642,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>247</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>248</v>
       </c>
@@ -5648,7 +5658,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>249</v>
       </c>
@@ -5656,7 +5666,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>250</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>251</v>
       </c>
@@ -5672,7 +5682,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>252</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>253</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>254</v>
       </c>
@@ -5696,7 +5706,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>255</v>
       </c>
@@ -5704,7 +5714,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>256</v>
       </c>
@@ -5712,7 +5722,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>257</v>
       </c>
@@ -5720,7 +5730,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>258</v>
       </c>
@@ -5728,7 +5738,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>259</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>260</v>
       </c>
@@ -5744,7 +5754,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>261</v>
       </c>
@@ -5752,7 +5762,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>262</v>
       </c>
@@ -5760,7 +5770,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>263</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>264</v>
       </c>
@@ -5776,7 +5786,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>265</v>
       </c>
@@ -5784,7 +5794,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>266</v>
       </c>
@@ -5792,7 +5802,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>267</v>
       </c>
@@ -5800,7 +5810,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>268</v>
       </c>
@@ -5808,7 +5818,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>269</v>
       </c>
@@ -5816,7 +5826,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>270</v>
       </c>
@@ -5824,7 +5834,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>271</v>
       </c>
@@ -5832,7 +5842,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>272</v>
       </c>
@@ -5840,7 +5850,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>273</v>
       </c>
@@ -5848,7 +5858,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>274</v>
       </c>
@@ -5856,7 +5866,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>275</v>
       </c>
@@ -5864,7 +5874,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>276</v>
       </c>
@@ -5872,7 +5882,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>277</v>
       </c>
@@ -5880,7 +5890,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>278</v>
       </c>
@@ -5888,7 +5898,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>279</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>280</v>
       </c>
@@ -5904,7 +5914,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>281</v>
       </c>
@@ -5912,7 +5922,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>282</v>
       </c>
@@ -5920,7 +5930,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>283</v>
       </c>
@@ -5928,7 +5938,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>284</v>
       </c>
@@ -5936,7 +5946,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>285</v>
       </c>
@@ -5944,7 +5954,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>286</v>
       </c>
@@ -5952,7 +5962,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>287</v>
       </c>
@@ -5960,7 +5970,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>288</v>
       </c>
@@ -5968,7 +5978,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>289</v>
       </c>
@@ -5976,7 +5986,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>290</v>
       </c>
@@ -5984,7 +5994,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>291</v>
       </c>
@@ -5992,7 +6002,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>292</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
@@ -6008,7 +6018,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
@@ -6016,7 +6026,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
@@ -6024,7 +6034,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
@@ -6032,7 +6042,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
@@ -6040,7 +6050,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
@@ -6048,7 +6058,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>299</v>
       </c>
@@ -6056,7 +6066,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>300</v>
       </c>
@@ -6064,7 +6074,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>301</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>302</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>303</v>
       </c>
@@ -6088,7 +6098,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>304</v>
       </c>
@@ -6096,7 +6106,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>305</v>
       </c>
@@ -6104,7 +6114,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>306</v>
       </c>
@@ -6112,7 +6122,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>307</v>
       </c>
@@ -6120,7 +6130,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>308</v>
       </c>
@@ -6128,7 +6138,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>309</v>
       </c>
@@ -6136,7 +6146,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>310</v>
       </c>
@@ -6144,7 +6154,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>311</v>
       </c>
@@ -6152,7 +6162,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>312</v>
       </c>
@@ -6160,7 +6170,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>313</v>
       </c>
@@ -6168,7 +6178,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>314</v>
       </c>
@@ -6176,7 +6186,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>315</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>316</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>317</v>
       </c>
@@ -6200,7 +6210,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>318</v>
       </c>
@@ -6208,7 +6218,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>319</v>
       </c>
@@ -6216,7 +6226,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>320</v>
       </c>
@@ -6224,7 +6234,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>321</v>
       </c>
@@ -6232,7 +6242,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>322</v>
       </c>
@@ -6240,7 +6250,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>323</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>324</v>
       </c>
@@ -6256,7 +6266,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>325</v>
       </c>
@@ -6264,7 +6274,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>326</v>
       </c>
@@ -6272,7 +6282,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>327</v>
       </c>
@@ -6280,7 +6290,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>328</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>329</v>
       </c>
@@ -6296,7 +6306,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>330</v>
       </c>
@@ -6304,7 +6314,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>331</v>
       </c>
@@ -6312,7 +6322,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>332</v>
       </c>
@@ -6320,7 +6330,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>333</v>
       </c>
@@ -6328,7 +6338,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>334</v>
       </c>
@@ -6336,7 +6346,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>335</v>
       </c>
@@ -6344,7 +6354,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>336</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>337</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>338</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>339</v>
       </c>
@@ -6376,7 +6386,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>340</v>
       </c>
@@ -6384,7 +6394,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>341</v>
       </c>
@@ -6392,7 +6402,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>342</v>
       </c>
@@ -6400,7 +6410,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>343</v>
       </c>
@@ -6408,7 +6418,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>344</v>
       </c>
@@ -6416,7 +6426,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>345</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>346</v>
       </c>
@@ -6432,7 +6442,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>347</v>
       </c>
@@ -6440,7 +6450,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>348</v>
       </c>
@@ -6448,7 +6458,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>349</v>
       </c>
@@ -6456,7 +6466,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>350</v>
       </c>
@@ -6464,7 +6474,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>351</v>
       </c>
@@ -6472,7 +6482,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>352</v>
       </c>
@@ -6480,7 +6490,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>353</v>
       </c>
@@ -6488,7 +6498,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>354</v>
       </c>
@@ -6496,7 +6506,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>355</v>
       </c>
@@ -6504,7 +6514,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>356</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>357</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>358</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>359</v>
       </c>
@@ -6536,7 +6546,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>360</v>
       </c>
@@ -6544,7 +6554,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>361</v>
       </c>
@@ -6552,7 +6562,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>362</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>363</v>
       </c>
@@ -6568,7 +6578,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>364</v>
       </c>
@@ -6576,7 +6586,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>365</v>
       </c>
@@ -6584,7 +6594,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>366</v>
       </c>
@@ -6592,7 +6602,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>367</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>368</v>
       </c>
@@ -6608,7 +6618,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>369</v>
       </c>
@@ -6616,7 +6626,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>370</v>
       </c>
@@ -6624,7 +6634,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>371</v>
       </c>
@@ -6632,7 +6642,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>372</v>
       </c>
@@ -6640,7 +6650,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>373</v>
       </c>
@@ -6648,7 +6658,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>374</v>
       </c>
@@ -6656,7 +6666,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>375</v>
       </c>
@@ -6664,7 +6674,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>376</v>
       </c>
@@ -6672,7 +6682,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>377</v>
       </c>
@@ -6680,7 +6690,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>378</v>
       </c>
@@ -6688,7 +6698,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>379</v>
       </c>
@@ -6696,7 +6706,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>380</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>381</v>
       </c>
@@ -6712,7 +6722,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>382</v>
       </c>
@@ -6720,7 +6730,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>383</v>
       </c>
@@ -6728,7 +6738,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>384</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>385</v>
       </c>
@@ -6744,7 +6754,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>386</v>
       </c>
@@ -6752,7 +6762,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>387</v>
       </c>
@@ -6760,7 +6770,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>388</v>
       </c>
@@ -6768,7 +6778,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>389</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>390</v>
       </c>
@@ -6784,7 +6794,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>391</v>
       </c>
@@ -6792,7 +6802,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>392</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>393</v>
       </c>
@@ -6808,7 +6818,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>394</v>
       </c>
@@ -6816,7 +6826,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>395</v>
       </c>
@@ -6824,7 +6834,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>396</v>
       </c>
@@ -6832,7 +6842,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>397</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>398</v>
       </c>
@@ -6848,7 +6858,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>399</v>
       </c>
@@ -6856,7 +6866,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>400</v>
       </c>
@@ -6864,7 +6874,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>401</v>
       </c>
@@ -6872,7 +6882,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>402</v>
       </c>
@@ -6880,7 +6890,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>403</v>
       </c>
@@ -6888,7 +6898,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>404</v>
       </c>
@@ -6896,7 +6906,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>405</v>
       </c>
@@ -6904,7 +6914,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>406</v>
       </c>
@@ -6912,7 +6922,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>407</v>
       </c>
@@ -6920,7 +6930,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>408</v>
       </c>
@@ -6928,7 +6938,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>409</v>
       </c>
@@ -6936,7 +6946,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>410</v>
       </c>
@@ -6944,7 +6954,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>411</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>412</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>413</v>
       </c>
@@ -6968,7 +6978,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>414</v>
       </c>
@@ -6976,7 +6986,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>415</v>
       </c>
@@ -6984,7 +6994,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>416</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>417</v>
       </c>
@@ -7000,7 +7010,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>418</v>
       </c>
@@ -7008,7 +7018,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>419</v>
       </c>
@@ -7016,7 +7026,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>420</v>
       </c>
@@ -7024,7 +7034,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>421</v>
       </c>
@@ -7032,7 +7042,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>422</v>
       </c>
@@ -7040,7 +7050,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>423</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>424</v>
       </c>
@@ -7056,7 +7066,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>425</v>
       </c>
@@ -7064,7 +7074,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>426</v>
       </c>
@@ -7072,7 +7082,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>427</v>
       </c>
@@ -7080,7 +7090,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>428</v>
       </c>
@@ -7088,7 +7098,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>429</v>
       </c>
@@ -7096,7 +7106,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>430</v>
       </c>
@@ -7104,7 +7114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>431</v>
       </c>
@@ -7112,7 +7122,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>432</v>
       </c>
@@ -7120,7 +7130,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>433</v>
       </c>
@@ -7128,7 +7138,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>434</v>
       </c>
@@ -7136,7 +7146,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>435</v>
       </c>
@@ -7144,7 +7154,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>436</v>
       </c>
@@ -7152,7 +7162,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>437</v>
       </c>
@@ -7160,7 +7170,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>438</v>
       </c>
@@ -7168,7 +7178,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>439</v>
       </c>
@@ -7176,7 +7186,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>440</v>
       </c>
@@ -7184,7 +7194,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>441</v>
       </c>
@@ -7192,7 +7202,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>442</v>
       </c>
@@ -7200,7 +7210,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>443</v>
       </c>
@@ -7208,7 +7218,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>444</v>
       </c>
@@ -7216,7 +7226,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>445</v>
       </c>
@@ -7224,7 +7234,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>446</v>
       </c>
@@ -7232,7 +7242,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>447</v>
       </c>
@@ -7240,7 +7250,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>448</v>
       </c>
@@ -7248,7 +7258,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>449</v>
       </c>
@@ -7256,7 +7266,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>450</v>
       </c>
@@ -7264,7 +7274,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>451</v>
       </c>
@@ -7272,7 +7282,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>452</v>
       </c>
@@ -7280,7 +7290,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>453</v>
       </c>
@@ -7288,7 +7298,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>454</v>
       </c>
@@ -7296,7 +7306,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>455</v>
       </c>
@@ -7304,7 +7314,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>456</v>
       </c>
@@ -7312,7 +7322,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>457</v>
       </c>
@@ -7320,7 +7330,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>458</v>
       </c>
@@ -7328,7 +7338,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>459</v>
       </c>
@@ -7336,7 +7346,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>460</v>
       </c>
@@ -7344,7 +7354,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>461</v>
       </c>
@@ -7352,7 +7362,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>462</v>
       </c>
@@ -7360,7 +7370,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>463</v>
       </c>
@@ -7368,7 +7378,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>464</v>
       </c>
@@ -7376,7 +7386,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>465</v>
       </c>
@@ -7384,7 +7394,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>466</v>
       </c>
@@ -7392,7 +7402,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>467</v>
       </c>
@@ -7400,7 +7410,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>468</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>469</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>470</v>
       </c>
@@ -7424,7 +7434,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>471</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>472</v>
       </c>
@@ -7440,7 +7450,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>473</v>
       </c>
@@ -7448,7 +7458,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>474</v>
       </c>
@@ -7456,7 +7466,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>475</v>
       </c>
@@ -7464,7 +7474,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>476</v>
       </c>
@@ -7472,7 +7482,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>477</v>
       </c>
@@ -7480,7 +7490,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>478</v>
       </c>
@@ -7488,7 +7498,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>479</v>
       </c>
@@ -7496,7 +7506,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>480</v>
       </c>
@@ -7504,7 +7514,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>481</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>482</v>
       </c>
@@ -7520,7 +7530,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>483</v>
       </c>
@@ -7528,7 +7538,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>484</v>
       </c>
@@ -7536,7 +7546,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>485</v>
       </c>
@@ -7544,7 +7554,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>486</v>
       </c>
@@ -7552,7 +7562,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>487</v>
       </c>
@@ -7560,7 +7570,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>488</v>
       </c>
@@ -7568,7 +7578,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>489</v>
       </c>
@@ -7576,7 +7586,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>490</v>
       </c>
@@ -7584,7 +7594,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>491</v>
       </c>
@@ -7592,7 +7602,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>492</v>
       </c>
@@ -7600,7 +7610,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>493</v>
       </c>
@@ -7608,7 +7618,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>494</v>
       </c>
@@ -7616,7 +7626,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>495</v>
       </c>
@@ -7624,7 +7634,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>496</v>
       </c>
@@ -7632,7 +7642,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>497</v>
       </c>
@@ -7640,7 +7650,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>498</v>
       </c>
@@ -7648,7 +7658,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>499</v>
       </c>
@@ -7656,7 +7666,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>500</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>501</v>
       </c>
@@ -7672,7 +7682,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>502</v>
       </c>
@@ -7680,7 +7690,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>503</v>
       </c>
@@ -7688,7 +7698,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>504</v>
       </c>
@@ -7696,7 +7706,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>505</v>
       </c>
@@ -7704,7 +7714,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>506</v>
       </c>
@@ -7712,7 +7722,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>507</v>
       </c>
@@ -7720,7 +7730,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>508</v>
       </c>
@@ -7728,7 +7738,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>509</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>510</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>511</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>512</v>
       </c>
@@ -7760,7 +7770,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>513</v>
       </c>
@@ -7768,7 +7778,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>514</v>
       </c>
@@ -7776,7 +7786,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>515</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>516</v>
       </c>
@@ -7792,7 +7802,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>517</v>
       </c>
@@ -7800,7 +7810,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>518</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>519</v>
       </c>
@@ -7816,7 +7826,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>520</v>
       </c>
@@ -7824,7 +7834,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>521</v>
       </c>
@@ -7832,7 +7842,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>522</v>
       </c>
@@ -7840,7 +7850,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>523</v>
       </c>
@@ -7848,7 +7858,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>524</v>
       </c>
@@ -7856,7 +7866,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>525</v>
       </c>
@@ -7864,7 +7874,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>526</v>
       </c>
@@ -7872,7 +7882,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>527</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>528</v>
       </c>
@@ -7888,7 +7898,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>529</v>
       </c>
@@ -7896,7 +7906,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>530</v>
       </c>
@@ -7904,7 +7914,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>531</v>
       </c>
@@ -7912,7 +7922,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>532</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>533</v>
       </c>
@@ -7928,7 +7938,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>534</v>
       </c>
@@ -7936,7 +7946,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>535</v>
       </c>
@@ -7944,7 +7954,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>536</v>
       </c>
@@ -7952,7 +7962,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>537</v>
       </c>
@@ -7960,7 +7970,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>538</v>
       </c>
@@ -7968,7 +7978,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>539</v>
       </c>
@@ -7976,7 +7986,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>540</v>
       </c>
@@ -7984,7 +7994,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>541</v>
       </c>
@@ -7992,7 +8002,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>542</v>
       </c>
@@ -8000,7 +8010,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>543</v>
       </c>
@@ -8008,7 +8018,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>544</v>
       </c>
@@ -8016,7 +8026,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>545</v>
       </c>
@@ -8024,7 +8034,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>546</v>
       </c>
@@ -8032,7 +8042,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>547</v>
       </c>
@@ -8040,7 +8050,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>548</v>
       </c>
@@ -8048,7 +8058,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>549</v>
       </c>
@@ -8056,7 +8066,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>550</v>
       </c>
@@ -8064,7 +8074,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>551</v>
       </c>
@@ -8072,7 +8082,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>552</v>
       </c>
@@ -8080,7 +8090,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>553</v>
       </c>
@@ -8088,7 +8098,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>554</v>
       </c>
@@ -8096,7 +8106,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>555</v>
       </c>
@@ -8104,7 +8114,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>556</v>
       </c>
@@ -8112,7 +8122,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>557</v>
       </c>
@@ -8120,7 +8130,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>558</v>
       </c>
@@ -8128,7 +8138,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>559</v>
       </c>
@@ -8136,7 +8146,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>560</v>
       </c>
@@ -8144,7 +8154,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>561</v>
       </c>
@@ -8152,7 +8162,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>562</v>
       </c>
@@ -8160,7 +8170,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>563</v>
       </c>
@@ -8168,7 +8178,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>564</v>
       </c>
@@ -8176,7 +8186,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>565</v>
       </c>
@@ -8184,7 +8194,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>566</v>
       </c>
@@ -8192,7 +8202,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>567</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>568</v>
       </c>
@@ -8208,7 +8218,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>569</v>
       </c>
@@ -8216,7 +8226,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>570</v>
       </c>
@@ -8224,7 +8234,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>571</v>
       </c>
@@ -8232,7 +8242,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>572</v>
       </c>
@@ -8240,7 +8250,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>573</v>
       </c>
@@ -8248,7 +8258,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>574</v>
       </c>
@@ -8256,7 +8266,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>575</v>
       </c>
@@ -8264,7 +8274,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>576</v>
       </c>
@@ -8272,7 +8282,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>577</v>
       </c>
@@ -8280,7 +8290,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>578</v>
       </c>
@@ -8288,7 +8298,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>579</v>
       </c>
@@ -8296,7 +8306,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>580</v>
       </c>
@@ -8304,7 +8314,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>581</v>
       </c>
@@ -8312,7 +8322,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>582</v>
       </c>
@@ -8320,7 +8330,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>583</v>
       </c>
@@ -8328,7 +8338,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>584</v>
       </c>
@@ -8336,7 +8346,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>585</v>
       </c>
@@ -8344,7 +8354,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>586</v>
       </c>
@@ -8352,7 +8362,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>587</v>
       </c>
@@ -8360,7 +8370,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>588</v>
       </c>
@@ -8368,7 +8378,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>589</v>
       </c>
@@ -8376,7 +8386,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>590</v>
       </c>
@@ -8384,7 +8394,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>591</v>
       </c>
@@ -8392,7 +8402,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>592</v>
       </c>
@@ -8400,7 +8410,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>593</v>
       </c>
@@ -8408,7 +8418,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>594</v>
       </c>
@@ -8416,7 +8426,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>595</v>
       </c>
@@ -8424,7 +8434,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>596</v>
       </c>
@@ -8432,7 +8442,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>597</v>
       </c>
@@ -8440,7 +8450,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>598</v>
       </c>
@@ -8448,7 +8458,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>599</v>
       </c>
@@ -8456,7 +8466,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>600</v>
       </c>
@@ -8464,7 +8474,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>601</v>
       </c>
@@ -8472,7 +8482,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>602</v>
       </c>
@@ -8480,7 +8490,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>603</v>
       </c>
@@ -8488,7 +8498,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>604</v>
       </c>
@@ -8496,7 +8506,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>605</v>
       </c>
@@ -8504,7 +8514,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>606</v>
       </c>
@@ -8512,7 +8522,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>607</v>
       </c>
@@ -8520,7 +8530,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>608</v>
       </c>
@@ -8528,7 +8538,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>609</v>
       </c>
@@ -8536,7 +8546,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>610</v>
       </c>
@@ -8544,7 +8554,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>611</v>
       </c>
@@ -8552,7 +8562,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>612</v>
       </c>
@@ -8560,7 +8570,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>613</v>
       </c>
@@ -8568,7 +8578,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>614</v>
       </c>
@@ -8576,7 +8586,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>615</v>
       </c>
@@ -8584,7 +8594,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>616</v>
       </c>
@@ -8592,7 +8602,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>617</v>
       </c>
@@ -8600,7 +8610,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
         <v>618</v>
       </c>
@@ -8608,7 +8618,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>619</v>
       </c>
@@ -8616,7 +8626,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
         <v>620</v>
       </c>
@@ -8624,7 +8634,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>621</v>
       </c>
@@ -8632,7 +8642,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
         <v>622</v>
       </c>
@@ -8640,7 +8650,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>623</v>
       </c>
@@ -8648,7 +8658,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
         <v>624</v>
       </c>
@@ -8656,7 +8666,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>625</v>
       </c>
@@ -8664,7 +8674,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
         <v>626</v>
       </c>
@@ -8672,7 +8682,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>627</v>
       </c>
@@ -8680,7 +8690,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
         <v>628</v>
       </c>
@@ -8688,7 +8698,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>629</v>
       </c>
@@ -8696,7 +8706,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
         <v>630</v>
       </c>
@@ -8704,7 +8714,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
         <v>631</v>
       </c>
@@ -8712,7 +8722,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
         <v>632</v>
       </c>
@@ -8720,7 +8730,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
         <v>633</v>
       </c>
@@ -8728,7 +8738,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
         <v>634</v>
       </c>
@@ -8736,7 +8746,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
         <v>635</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
         <v>636</v>
       </c>
@@ -8752,7 +8762,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
         <v>637</v>
       </c>
@@ -8760,7 +8770,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
         <v>638</v>
       </c>
@@ -8768,7 +8778,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
         <v>639</v>
       </c>
@@ -8776,7 +8786,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
         <v>640</v>
       </c>
@@ -8784,7 +8794,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>641</v>
       </c>
@@ -8792,7 +8802,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>642</v>
       </c>
@@ -8800,7 +8810,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>643</v>
       </c>
@@ -8808,7 +8818,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>644</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>645</v>
       </c>
@@ -8824,7 +8834,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>646</v>
       </c>
@@ -8832,7 +8842,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>647</v>
       </c>
@@ -8840,7 +8850,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>648</v>
       </c>
@@ -8848,7 +8858,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>649</v>
       </c>
@@ -8856,7 +8866,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
         <v>650</v>
       </c>
@@ -8864,7 +8874,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>651</v>
       </c>
@@ -8872,7 +8882,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
         <v>652</v>
       </c>
@@ -8880,7 +8890,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>653</v>
       </c>
@@ -8888,7 +8898,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
         <v>654</v>
       </c>
@@ -8896,7 +8906,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
         <v>655</v>
       </c>
@@ -8904,7 +8914,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
         <v>656</v>
       </c>
@@ -8912,7 +8922,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
         <v>657</v>
       </c>
@@ -8920,7 +8930,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>658</v>
       </c>
@@ -8928,7 +8938,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
         <v>659</v>
       </c>
@@ -8936,7 +8946,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
         <v>660</v>
       </c>
@@ -8944,7 +8954,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
         <v>661</v>
       </c>
@@ -8952,7 +8962,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
         <v>662</v>
       </c>
@@ -8960,7 +8970,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
         <v>663</v>
       </c>
@@ -8968,7 +8978,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
         <v>664</v>
       </c>
@@ -8976,7 +8986,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
         <v>665</v>
       </c>
@@ -8984,7 +8994,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
         <v>666</v>
       </c>
@@ -8992,7 +9002,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
         <v>667</v>
       </c>
@@ -9000,7 +9010,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
         <v>668</v>
       </c>
@@ -9008,7 +9018,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
         <v>669</v>
       </c>
@@ -9016,7 +9026,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
         <v>670</v>
       </c>
@@ -9024,7 +9034,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
         <v>671</v>
       </c>
@@ -9032,7 +9042,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
         <v>672</v>
       </c>
@@ -9040,7 +9050,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
         <v>673</v>
       </c>
@@ -9048,7 +9058,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
         <v>674</v>
       </c>
@@ -9056,7 +9066,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
         <v>675</v>
       </c>
@@ -9064,7 +9074,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
         <v>676</v>
       </c>
@@ -9072,7 +9082,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
         <v>677</v>
       </c>
@@ -9080,7 +9090,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
         <v>678</v>
       </c>
@@ -9088,7 +9098,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
         <v>679</v>
       </c>
@@ -9096,7 +9106,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
         <v>680</v>
       </c>
@@ -9104,7 +9114,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
         <v>681</v>
       </c>
@@ -9112,7 +9122,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
         <v>682</v>
       </c>
@@ -9120,7 +9130,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
         <v>683</v>
       </c>
@@ -9128,7 +9138,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
         <v>684</v>
       </c>
@@ -9136,7 +9146,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
         <v>685</v>
       </c>
@@ -9144,7 +9154,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
         <v>686</v>
       </c>
@@ -9152,7 +9162,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
         <v>687</v>
       </c>
@@ -9160,7 +9170,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
         <v>688</v>
       </c>
@@ -9168,7 +9178,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
         <v>689</v>
       </c>
@@ -9176,7 +9186,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
         <v>690</v>
       </c>
@@ -9184,7 +9194,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
         <v>691</v>
       </c>
@@ -9192,7 +9202,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
         <v>692</v>
       </c>
@@ -9200,7 +9210,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
         <v>693</v>
       </c>
@@ -9208,7 +9218,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
         <v>694</v>
       </c>
@@ -9216,7 +9226,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
         <v>695</v>
       </c>
@@ -9224,7 +9234,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
         <v>696</v>
       </c>
@@ -9232,7 +9242,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
         <v>697</v>
       </c>
@@ -9240,7 +9250,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
         <v>698</v>
       </c>
@@ -9248,7 +9258,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
         <v>699</v>
       </c>
@@ -9256,7 +9266,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
         <v>700</v>
       </c>
@@ -9264,7 +9274,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
         <v>701</v>
       </c>
@@ -9272,7 +9282,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
         <v>702</v>
       </c>
@@ -9280,7 +9290,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
         <v>703</v>
       </c>
@@ -9288,7 +9298,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
         <v>704</v>
       </c>
@@ -9296,7 +9306,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
         <v>705</v>
       </c>
@@ -9304,7 +9314,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
         <v>706</v>
       </c>
@@ -9312,7 +9322,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
         <v>707</v>
       </c>
@@ -9320,7 +9330,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
         <v>708</v>
       </c>
@@ -9328,7 +9338,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
         <v>709</v>
       </c>
@@ -9336,7 +9346,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
         <v>710</v>
       </c>
@@ -9344,7 +9354,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>711</v>
       </c>
@@ -9352,7 +9362,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
         <v>712</v>
       </c>
@@ -9360,7 +9370,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
         <v>713</v>
       </c>
@@ -9368,1339 +9378,1340 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B716" s="4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B716" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B717" s="4" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B717" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B719" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B720" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="3" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="3" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="3" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="3" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="3" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" s="3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" s="3" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A858" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A859" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" s="3" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A895" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A899" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A900" s="3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A901" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A902" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A905" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A906" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A907" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A913" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A914" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A936" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A938" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" s="3" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A941" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A942" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A943" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A944" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A945" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A946" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A947" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A948" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A949" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A950" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A951" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A952" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A953" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A954" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A955" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A956" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A957" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A958" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A959" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A960" s="3" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A961" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A962" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A963" s="3" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A964" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A965" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A966" s="3" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A967" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A968" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A969" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A970" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A971" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A972" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A973" s="3" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A974" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A975" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A976" s="3" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A977" s="3" t="s">
         <v>975</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:B977">
-    <sortCondition ref="B2:B977"/>
+    <sortCondition ref="B681"/>
   </sortState>
   <conditionalFormatting sqref="A2:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10712,7 +10723,7 @@
       <selection activeCell="A712" sqref="A1:A712"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14280,10 +14291,5 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3644,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A705" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B721" sqref="B721"/>
+    <sheetView tabSelected="1" topLeftCell="A713" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B722" sqref="B722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9418,82 +9418,85 @@
         <v>964</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B721" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
         <v>734</v>
       </c>

--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3645,7 +3645,7 @@
   <dimension ref="A1:D977"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A713" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B722" sqref="B722"/>
+      <selection activeCell="B723" sqref="B723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9429,6 +9429,9 @@
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>720</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">

--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3644,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A713" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B723" sqref="B723"/>
+    <sheetView tabSelected="1" topLeftCell="A709" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B725" sqref="B725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9438,10 +9438,16 @@
       <c r="A723" s="3" t="s">
         <v>721</v>
       </c>
+      <c r="B723" s="6" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>722</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">

--- a/DL-Transcribed-Letters.xlsx
+++ b/DL-Transcribed-Letters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1052">
   <si>
     <t>liv_000043</t>
   </si>
@@ -3645,7 +3645,7 @@
   <dimension ref="A1:D977"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A709" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B725" sqref="B725"/>
+      <selection activeCell="B726" sqref="B726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9453,6 +9453,9 @@
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>723</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
